--- a/medicine/Enfance/Alphonse_Crozière/Alphonse_Crozière.xlsx
+++ b/medicine/Enfance/Alphonse_Crozière/Alphonse_Crozière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alphonse_Crozi%C3%A8re</t>
+          <t>Alphonse_Crozière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse-Henri Pinel dit Alphonse Crozière (Paris 5e, 26 octobre 1873 - Crépy-en-Valois, 11 octobre 1946) est un auteur dramatique, parolier et écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alphonse_Crozi%C3%A8re</t>
+          <t>Alphonse_Crozière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaborateur à la presse enfantine, on lui de nombreuses pièces et livres pour enfants. Ses deux ouvrages les plus connus restent sa collaboration avec Jean Bruller pour Frisemouche fait de l'auto (Citroën, 1926) et Loulou chez les nègres (Nathan, 1929).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alphonse_Crozi%C3%A8re</t>
+          <t>Alphonse_Crozière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Réserviste Troumédard, 1900
 Le Jeune Marcheur, roman, 1901
